--- a/biology/Botanique/Ficus_kamerunensis/Ficus_kamerunensis.xlsx
+++ b/biology/Botanique/Ficus_kamerunensis/Ficus_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficus kamerunensis est une espèce d'arbustes à fleurs de la famille des Moraceae. Cette espèce a été décrite par Warb. ex Mildbr. et Burret en 1911[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficus kamerunensis est une espèce d'arbustes à fleurs de la famille des Moraceae. Cette espèce a été décrite par Warb. ex Mildbr. et Burret en 1911.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste peut atteindre 18-30 m de haut. Ses feuilles sont en spirale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste peut atteindre 18-30 m de haut. Ses feuilles sont en spirale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans les forêts à feuilles persistantes et parfois sur un sol rocheux à des altitudes entre 486-730 m[2]. On en trouve en Sierra Leone, au Congo[3], en Côte d'Ivoire, au Niger et en Éthiopie. Quelques arbustes sont présents sur l’île de São Tomé[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les forêts à feuilles persistantes et parfois sur un sol rocheux à des altitudes entre 486-730 m. On en trouve en Sierra Leone, au Congo, en Côte d'Ivoire, au Niger et en Éthiopie. Quelques arbustes sont présents sur l’île de São Tomé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce donne de grandes quantités de latex blanc[5]. Quelques parties de l’arbre sont utilisées en médecine pour traiter les infections et les maladies sexuellement transmissibles[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce donne de grandes quantités de latex blanc. Quelques parties de l’arbre sont utilisées en médecine pour traiter les infections et les maladies sexuellement transmissibles.
 </t>
         </is>
       </c>
